--- a/train_test_split.xlsx
+++ b/train_test_split.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1748.JPEG</t>
+          <t>IMG_0_2127.JPEG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -453,31 +453,31 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1749.JPEG</t>
+          <t>IMG_0_2130.JPEG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1750.JPEG</t>
+          <t>IMG_0_2131.JPEG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1751.JPEG</t>
+          <t>IMG_0_2132.JPEG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1752.JPEG</t>
+          <t>IMG_0_2133.JPEG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,7 +501,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1753.JPEG</t>
+          <t>IMG_0_2134.JPEG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -513,31 +513,31 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1754.JPEG</t>
+          <t>IMG_0_2135.JPEG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1755.JPEG</t>
+          <t>IMG_0_2136.JPEG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1756.JPEG</t>
+          <t>IMG_0_2137.JPEG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1757.JPEG</t>
+          <t>IMG_0_2138.JPEG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -561,19 +561,19 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1758.JPEG</t>
+          <t>IMG_0_2139.JPEG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1759.JPEG</t>
+          <t>IMG_0_2140.JPEG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1760.JPEG</t>
+          <t>IMG_0_2142.JPEG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1761.JPEG</t>
+          <t>IMG_0_2143.JPEG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1763.JPEG</t>
+          <t>IMG_0_2144.JPEG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1764.JPEG</t>
+          <t>IMG_0_2145.JPEG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1765.JPEG</t>
+          <t>IMG_0_2146.JPEG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1766.JPEG</t>
+          <t>IMG_0_2149.JPEG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -657,31 +657,31 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1767.JPEG</t>
+          <t>IMG_0_2151.JPEG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1768.JPEG</t>
+          <t>IMG_0_2152.JPEG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2128.JPEG</t>
+          <t>IMG_0_2153.JPEG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2130.JPEG</t>
+          <t>IMG_0_2154.JPEG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2131.JPEG</t>
+          <t>IMG_0_2155.JPEG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2132.JPEG</t>
+          <t>IMG_0_2157.JPEG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2133.JPEG</t>
+          <t>IMG_0_2158.JPEG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2134.JPEG</t>
+          <t>IMG_0_2159.JPEG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2136.JPEG</t>
+          <t>IMG_0_2160.JPEG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2137.JPEG</t>
+          <t>IMG_0_2161.JPEG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2138.JPEG</t>
+          <t>IMG_0_2162.JPEG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2139.JPEG</t>
+          <t>IMG_0_2163.JPEG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2140.JPEG</t>
+          <t>IMG_0_2165.JPEG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -813,7 +813,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2141.JPEG</t>
+          <t>IMG_0_2166.JPEG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2142.JPEG</t>
+          <t>IMG_0_2167.JPEG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2144.JPEG</t>
+          <t>IMG_0_2168.JPEG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2145.JPEG</t>
+          <t>IMG_0_2169.JPEG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2146.JPEG</t>
+          <t>IMG_0_2170.JPEG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2147.JPEG</t>
+          <t>IMG_0_2171.JPEG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2148.JPEG</t>
+          <t>IMG_0_2172.JPEG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2149.JPEG</t>
+          <t>IMG_0_2175.JPEG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2150.JPEG</t>
+          <t>IMG_0_2176.JPEG</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2151.JPEG</t>
+          <t>IMG_0_2177.JPEG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2152.JPEG</t>
+          <t>IMG_0_2178.JPEG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2153.JPEG</t>
+          <t>IMG_0_2181.JPEG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2154.JPEG</t>
+          <t>IMG_0_2184.JPEG</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2155.JPEG</t>
+          <t>IMG_0_2185.JPEG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -981,7 +981,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2156.JPEG</t>
+          <t>IMG_0_2186.JPEG</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2157.JPEG</t>
+          <t>IMG_0_2187.JPEG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2159.JPEG</t>
+          <t>IMG_0_2188.JPEG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2160.JPEG</t>
+          <t>IMG_0_2189.JPEG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2161.JPEG</t>
+          <t>IMG_0_2190.JPEG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1041,7 +1041,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2162.JPEG</t>
+          <t>IMG_0_2192.JPEG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2163.JPEG</t>
+          <t>IMG_0_2193.JPEG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2164.JPEG</t>
+          <t>IMG_0_2195.JPEG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2165.JPEG</t>
+          <t>IMG_0_2196.JPEG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2167.JPEG</t>
+          <t>IMG_0_2197.JPEG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1101,7 +1101,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2168.JPEG</t>
+          <t>IMG_0_2198.JPEG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2169.JPEG</t>
+          <t>IMG_0_2201.JPEG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2170.JPEG</t>
+          <t>IMG_0_2202.JPEG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2171.JPEG</t>
+          <t>IMG_0_2205.JPEG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1149,7 +1149,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2172.JPEG</t>
+          <t>IMG_0_2206.JPEG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2175.JPEG</t>
+          <t>IMG_0_2208.JPEG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2176.JPEG</t>
+          <t>IMG_0_2210.JPEG</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2177.JPEG</t>
+          <t>IMG_0_2211.JPEG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2178.JPEG</t>
+          <t>IMG_0_2212.JPEG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1209,7 +1209,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2182.JPEG</t>
+          <t>IMG_0_2213.JPEG</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2183.JPEG</t>
+          <t>IMG_0_2214.JPEG</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1233,199 +1233,199 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2185.JPEG</t>
+          <t>IMG_0_2128.JPEG</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2186.JPEG</t>
+          <t>IMG_0_2129.JPEG</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2187.JPEG</t>
+          <t>IMG_0_2141.JPEG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2188.JPEG</t>
+          <t>IMG_0_2147.JPEG</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2189.JPEG</t>
+          <t>IMG_0_2148.JPEG</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2190.JPEG</t>
+          <t>IMG_0_2150.JPEG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2191.JPEG</t>
+          <t>IMG_0_2156.JPEG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2193.JPEG</t>
+          <t>IMG_0_2164.JPEG</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2194.JPEG</t>
+          <t>IMG_0_2182.JPEG</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2195.JPEG</t>
+          <t>IMG_0_2183.JPEG</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2198.JPEG</t>
+          <t>IMG_0_2191.JPEG</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2201.JPEG</t>
+          <t>IMG_0_2194.JPEG</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2202.JPEG</t>
+          <t>IMG_0_2203.JPEG</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2203.JPEG</t>
+          <t>IMG_0_2204.JPEG</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2205.JPEG</t>
+          <t>IMG_0_2207.JPEG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2206.JPEG</t>
+          <t>IMG_0_2209.JPEG</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2207.JPEG</t>
+          <t>IMG_0_1885.JPEG</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2208.JPEG</t>
+          <t>IMG_0_1886.JPEG</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2209.JPEG</t>
+          <t>IMG_0_1887.JPEG</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2210.JPEG</t>
+          <t>IMG_0_1889.JPEG</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2212.JPEG</t>
+          <t>IMG_0_1890.JPEG</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1485,7 +1485,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2213.JPEG</t>
+          <t>IMG_0_1893.JPEG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1497,19 +1497,19 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1749.JPEG</t>
+          <t>IMG_0_1895.JPEG</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1750.JPEG</t>
+          <t>IMG_0_1896.JPEG</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1755.JPEG</t>
+          <t>IMG_0_1897.JPEG</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1533,31 +1533,31 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1756.JPEG</t>
+          <t>IMG_0_1899.JPEG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1760.JPEG</t>
+          <t>IMG_0_1900.JPEG</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1761.JPEG</t>
+          <t>IMG_0_1901.JPEG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1569,7 +1569,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1764.JPEG</t>
+          <t>IMG_0_1902.JPEG</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1766.JPEG</t>
+          <t>IMG_0_1903.JPEG</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2141.JPEG</t>
+          <t>IMG_0_1904.JPEG</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2143.JPEG</t>
+          <t>IMG_0_1905.JPEG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2166.JPEG</t>
+          <t>IMG_0_1906.JPEG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1629,7 +1629,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2181.JPEG</t>
+          <t>IMG_0_1907.JPEG</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2183.JPEG</t>
+          <t>IMG_0_1908.JPEG</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2184.JPEG</t>
+          <t>IMG_0_1909.JPEG</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2186.JPEG</t>
+          <t>IMG_0_1910.JPEG</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2188.JPEG</t>
+          <t>IMG_0_1913.JPEG</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1689,7 +1689,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2189.JPEG</t>
+          <t>IMG_0_1914.JPEG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2191.JPEG</t>
+          <t>IMG_0_1915.JPEG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2192.JPEG</t>
+          <t>IMG_0_1917.JPEG</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2193.JPEG</t>
+          <t>IMG_0_1919.JPEG</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2194.JPEG</t>
+          <t>IMG_0_1920.JPEG</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2195.JPEG</t>
+          <t>IMG_0_1921.JPEG</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2196.JPEG</t>
+          <t>IMG_0_1922.JPEG</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2197.JPEG</t>
+          <t>IMG_0_1923.JPEG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1785,271 +1785,271 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1762.JPEG</t>
+          <t>IMG_0_1925.JPEG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2127.JPEG</t>
+          <t>IMG_0_1926.JPEG</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2129.JPEG</t>
+          <t>IMG_0_1927.JPEG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2135.JPEG</t>
+          <t>IMG_0_1929.JPEG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2143.JPEG</t>
+          <t>IMG_0_1930.JPEG</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2158.JPEG</t>
+          <t>IMG_0_1931.JPEG</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2166.JPEG</t>
+          <t>IMG_0_1935.JPEG</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2181.JPEG</t>
+          <t>IMG_0_1936.JPEG</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2184.JPEG</t>
+          <t>IMG_0_1937.JPEG</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2192.JPEG</t>
+          <t>IMG_0_1938.JPEG</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2196.JPEG</t>
+          <t>IMG_0_1939.JPEG</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2197.JPEG</t>
+          <t>IMG_0_1940.JPEG</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2204.JPEG</t>
+          <t>IMG_0_1941.JPEG</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2211.JPEG</t>
+          <t>IMG_0_1942.JPEG</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2214.JPEG</t>
+          <t>IMG_0_1943.JPEG</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1768.JPEG</t>
+          <t>IMG_0_1944.JPEG</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2182.JPEG</t>
+          <t>IMG_0_1945.JPEG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2185.JPEG</t>
+          <t>IMG_0_1947.JPEG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2187.JPEG</t>
+          <t>IMG_0_1948.JPEG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2190.JPEG</t>
+          <t>IMG_0_1950.JPEG</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_2198.JPEG</t>
+          <t>IMG_0_1952.JPEG</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1769.JPEG</t>
+          <t>IMG_0_1953.JPEG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1770.JPEG</t>
+          <t>IMG_0_1955.JPEG</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2061,19 +2061,19 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1771.JPEG</t>
+          <t>IMG_0_1956.JPEG</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1772.JPEG</t>
+          <t>IMG_0_1957.JPEG</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2085,19 +2085,19 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1773.JPEG</t>
+          <t>IMG_0_1959.JPEG</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1774.JPEG</t>
+          <t>IMG_0_1960.JPEG</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2109,19 +2109,19 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1775.JPEG</t>
+          <t>IMG_0_1961.JPEG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1776.JPEG</t>
+          <t>IMG_0_1962.JPEG</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2133,7 +2133,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1777.JPEG</t>
+          <t>IMG_0_1963.JPEG</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1778.JPEG</t>
+          <t>IMG_0_1964.JPEG</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1779.JPEG</t>
+          <t>IMG_0_1965.JPEG</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2169,31 +2169,31 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1780.JPEG</t>
+          <t>IMG_0_1966.JPEG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1781.JPEG</t>
+          <t>IMG_0_1967.JPEG</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1782.JPEG</t>
+          <t>IMG_0_1969.JPEG</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2205,19 +2205,19 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1784.JPEG</t>
+          <t>IMG_0_1970.JPEG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1785.JPEG</t>
+          <t>IMG_0_1971.JPEG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2229,7 +2229,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1786.JPEG</t>
+          <t>IMG_0_1972.JPEG</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1787.JPEG</t>
+          <t>IMG_0_1973.JPEG</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1788.JPEG</t>
+          <t>IMG_0_1974.JPEG</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2265,7 +2265,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1789.JPEG</t>
+          <t>IMG_0_1979.JPEG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2277,19 +2277,19 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1790.JPEG</t>
+          <t>IMG_0_1980.JPEG</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1791.JPEG</t>
+          <t>IMG_0_1981.JPEG</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1792.JPEG</t>
+          <t>IMG_0_1982.JPEG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2313,19 +2313,19 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1793.JPEG</t>
+          <t>IMG_0_1983.JPEG</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1794.JPEG</t>
+          <t>IMG_0_1984.JPEG</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2337,19 +2337,19 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1797.JPEG</t>
+          <t>IMG_0_1985.JPEG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1798.JPEG</t>
+          <t>IMG_0_1986.JPEG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1799.JPEG</t>
+          <t>IMG_0_1987.JPEG</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1800.JPEG</t>
+          <t>IMG_0_1989.JPEG</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2385,7 +2385,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1801.JPEG</t>
+          <t>IMG_0_1990.JPEG</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2397,7 +2397,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1802.JPEG</t>
+          <t>IMG_0_1991.JPEG</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2409,31 +2409,31 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1803.JPEG</t>
+          <t>IMG_0_1992.JPEG</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1804.JPEG</t>
+          <t>IMG_0_1993.JPEG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1805.JPEG</t>
+          <t>IMG_0_1995.JPEG</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1806.JPEG</t>
+          <t>IMG_0_1997.JPEG</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2457,7 +2457,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1807.JPEG</t>
+          <t>IMG_0_1999.JPEG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2469,7 +2469,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1808.JPEG</t>
+          <t>IMG_0_2001.JPEG</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1809.JPEG</t>
+          <t>IMG_0_2002.JPEG</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2493,7 +2493,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1885.JPEG</t>
+          <t>IMG_0_2003.JPEG</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1888.JPEG</t>
+          <t>IMG_0_2004.JPEG</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2517,7 +2517,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1889.JPEG</t>
+          <t>IMG_0_2006.JPEG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1890.JPEG</t>
+          <t>IMG_0_2007.JPEG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2541,295 +2541,295 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1891.JPEG</t>
+          <t>IMG_0_1884.JPEG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1892.JPEG</t>
+          <t>IMG_0_1888.JPEG</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1893.JPEG</t>
+          <t>IMG_0_1891.JPEG</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1895.JPEG</t>
+          <t>IMG_0_1892.JPEG</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1896.JPEG</t>
+          <t>IMG_0_1894.JPEG</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1897.JPEG</t>
+          <t>IMG_0_1898.JPEG</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1898.JPEG</t>
+          <t>IMG_0_1911.JPEG</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1899.JPEG</t>
+          <t>IMG_0_1912.JPEG</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1900.JPEG</t>
+          <t>IMG_0_1916.JPEG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1901.JPEG</t>
+          <t>IMG_0_1918.JPEG</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1902.JPEG</t>
+          <t>IMG_0_1924.JPEG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1903.JPEG</t>
+          <t>IMG_0_1928.JPEG</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1906.JPEG</t>
+          <t>IMG_0_1946.JPEG</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1907.JPEG</t>
+          <t>IMG_0_1949.JPEG</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1909.JPEG</t>
+          <t>IMG_0_1951.JPEG</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1910.JPEG</t>
+          <t>IMG_0_1958.JPEG</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1911.JPEG</t>
+          <t>IMG_0_1968.JPEG</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1912.JPEG</t>
+          <t>IMG_0_1975.JPEG</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1914.JPEG</t>
+          <t>IMG_0_1976.JPEG</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1915.JPEG</t>
+          <t>IMG_0_1988.JPEG</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1916.JPEG</t>
+          <t>IMG_0_1994.JPEG</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1917.JPEG</t>
+          <t>IMG_0_1996.JPEG</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1918.JPEG</t>
+          <t>IMG_0_1998.JPEG</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1919.JPEG</t>
+          <t>IMG_0_2005.JPEG</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1920.JPEG</t>
+          <t>IMG_0_2011.JPEG</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2841,7 +2841,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1921.JPEG</t>
+          <t>IMG_0_2013.JPEG</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1922.JPEG</t>
+          <t>IMG_0_2014.JPEG</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2865,7 +2865,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1923.JPEG</t>
+          <t>IMG_0_2015.JPEG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2877,7 +2877,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1924.JPEG</t>
+          <t>IMG_0_2016.JPEG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2889,7 +2889,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1925.JPEG</t>
+          <t>IMG_0_2017.JPEG</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2901,7 +2901,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1926.JPEG</t>
+          <t>IMG_0_2018.JPEG</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1927.JPEG</t>
+          <t>IMG_0_2019.JPEG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2925,7 +2925,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1929.JPEG</t>
+          <t>IMG_0_2020.JPEG</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2937,7 +2937,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1930.JPEG</t>
+          <t>IMG_0_2022.JPEG</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2949,7 +2949,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1931.JPEG</t>
+          <t>IMG_0_2023.JPEG</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1935.JPEG</t>
+          <t>IMG_0_2024.JPEG</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2973,7 +2973,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1936.JPEG</t>
+          <t>IMG_0_2025.JPEG</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1937.JPEG</t>
+          <t>IMG_0_2028.JPEG</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1938.JPEG</t>
+          <t>IMG_0_2030.JPEG</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3009,7 +3009,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1939.JPEG</t>
+          <t>IMG_0_2031.JPEG</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3021,7 +3021,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1941.JPEG</t>
+          <t>IMG_0_2032.JPEG</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3033,7 +3033,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1942.JPEG</t>
+          <t>IMG_0_2033.JPEG</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3045,7 +3045,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1943.JPEG</t>
+          <t>IMG_0_2035.JPEG</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1944.JPEG</t>
+          <t>IMG_0_2036.JPEG</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3069,7 +3069,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1946.JPEG</t>
+          <t>IMG_0_2037.JPEG</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3081,7 +3081,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1948.JPEG</t>
+          <t>IMG_0_2038.JPEG</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3093,7 +3093,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1949.JPEG</t>
+          <t>IMG_0_2039.JPEG</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3105,7 +3105,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1950.JPEG</t>
+          <t>IMG_0_2040.JPEG</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3117,7 +3117,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1951.JPEG</t>
+          <t>IMG_0_2041.JPEG</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3129,7 +3129,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1953.JPEG</t>
+          <t>IMG_0_2043.JPEG</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3141,7 +3141,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1954.JPEG</t>
+          <t>IMG_0_2044.JPEG</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3153,7 +3153,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1955.JPEG</t>
+          <t>IMG_0_2045.JPEG</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1956.JPEG</t>
+          <t>IMG_0_2046.JPEG</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1957.JPEG</t>
+          <t>IMG_0_2047.JPEG</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1958.JPEG</t>
+          <t>IMG_0_2049.JPEG</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1959.JPEG</t>
+          <t>IMG_0_2050.JPEG</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3213,7 +3213,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1960.JPEG</t>
+          <t>IMG_0_2052.JPEG</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3225,7 +3225,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1961.JPEG</t>
+          <t>IMG_0_2053.JPEG</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3237,7 +3237,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1962.JPEG</t>
+          <t>IMG_0_2054.JPEG</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3249,7 +3249,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1963.JPEG</t>
+          <t>IMG_0_2056.JPEG</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3261,7 +3261,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1964.JPEG</t>
+          <t>IMG_0_2057.JPEG</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3273,7 +3273,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1965.JPEG</t>
+          <t>IMG_0_2058.JPEG</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3285,7 +3285,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1966.JPEG</t>
+          <t>IMG_0_2059.JPEG</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3297,7 +3297,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1967.JPEG</t>
+          <t>IMG_0_2060.JPEG</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3309,7 +3309,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1969.JPEG</t>
+          <t>IMG_0_2061.JPEG</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3321,7 +3321,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1970.JPEG</t>
+          <t>IMG_0_2062.JPEG</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1971.JPEG</t>
+          <t>IMG_0_2063.JPEG</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1972.JPEG</t>
+          <t>IMG_0_2065.JPEG</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3357,7 +3357,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1973.JPEG</t>
+          <t>IMG_0_2068.JPEG</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1974.JPEG</t>
+          <t>IMG_0_2069.JPEG</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1977.JPEG</t>
+          <t>IMG_0_2071.JPEG</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3393,7 +3393,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1979.JPEG</t>
+          <t>IMG_0_2072.JPEG</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3405,7 +3405,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1980.JPEG</t>
+          <t>IMG_0_2073.JPEG</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1982.JPEG</t>
+          <t>IMG_0_2074.JPEG</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3429,7 +3429,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1983.JPEG</t>
+          <t>IMG_0_2075.JPEG</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3441,7 +3441,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1984.JPEG</t>
+          <t>IMG_0_2076.JPEG</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1985.JPEG</t>
+          <t>IMG_0_2077.JPEG</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3465,7 +3465,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1988.JPEG</t>
+          <t>IMG_0_2078.JPEG</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3477,7 +3477,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1989.JPEG</t>
+          <t>IMG_0_2082.JPEG</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3489,7 +3489,7 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1990.JPEG</t>
+          <t>IMG_0_2083.JPEG</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3501,7 +3501,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1991.JPEG</t>
+          <t>IMG_0_2085.JPEG</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3513,7 +3513,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1992.JPEG</t>
+          <t>IMG_0_2087.JPEG</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3525,7 +3525,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1993.JPEG</t>
+          <t>IMG_0_2088.JPEG</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3537,7 +3537,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1994.JPEG</t>
+          <t>IMG_0_2089.JPEG</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3549,7 +3549,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1996.JPEG</t>
+          <t>IMG_0_2090.JPEG</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3561,7 +3561,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1997.JPEG</t>
+          <t>IMG_0_2091.JPEG</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1998.JPEG</t>
+          <t>IMG_0_2092.JPEG</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_1999.JPEG</t>
+          <t>IMG_0_2093.JPEG</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3597,7 +3597,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2001.JPEG</t>
+          <t>IMG_0_2094.JPEG</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3609,7 +3609,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2002.JPEG</t>
+          <t>IMG_0_2095.JPEG</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3621,7 +3621,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2003.JPEG</t>
+          <t>IMG_0_2096.JPEG</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3633,7 +3633,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2004.JPEG</t>
+          <t>IMG_0_2098.JPEG</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3645,7 +3645,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2006.JPEG</t>
+          <t>IMG_0_2099.JPEG</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3657,7 +3657,7 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>IMG_0_2007.JPEG</t>
+          <t>IMG_0_2100.JPEG</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3669,7 +3669,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1769.JPEG</t>
+          <t>IMG_0_2102.JPEG</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3681,7 +3681,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1774.JPEG</t>
+          <t>IMG_0_2103.JPEG</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3693,7 +3693,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1775.JPEG</t>
+          <t>IMG_0_2104.JPEG</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3705,7 +3705,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1776.JPEG</t>
+          <t>IMG_0_2105.JPEG</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1777.JPEG</t>
+          <t>IMG_0_2106.JPEG</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3729,7 +3729,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1778.JPEG</t>
+          <t>IMG_0_2107.JPEG</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1783.JPEG</t>
+          <t>IMG_0_2109.JPEG</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1787.JPEG</t>
+          <t>IMG_0_2110.JPEG</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3765,7 +3765,7 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1788.JPEG</t>
+          <t>IMG_0_2111.JPEG</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3777,7 +3777,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1791.JPEG</t>
+          <t>IMG_0_2112.JPEG</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3789,7 +3789,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1887.JPEG</t>
+          <t>IMG_0_2113.JPEG</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3801,7 +3801,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1888.JPEG</t>
+          <t>IMG_0_2114.JPEG</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1889.JPEG</t>
+          <t>IMG_0_2115.JPEG</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1891.JPEG</t>
+          <t>IMG_0_2116.JPEG</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3837,7 +3837,7 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1892.JPEG</t>
+          <t>IMG_0_2117.JPEG</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3849,7 +3849,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1893.JPEG</t>
+          <t>IMG_0_2120.JPEG</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3861,7 +3861,7 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1894.JPEG</t>
+          <t>IMG_0_2121.JPEG</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3873,7 +3873,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1895.JPEG</t>
+          <t>IMG_0_2122.JPEG</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3885,7 +3885,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1897.JPEG</t>
+          <t>IMG_0_2123.JPEG</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3897,7 +3897,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1899.JPEG</t>
+          <t>IMG_1_2051.JPEG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3909,2770 +3909,274 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1900.JPEG</t>
+          <t>IMG_0_2012.JPEG</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1901.JPEG</t>
+          <t>IMG_0_2021.JPEG</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1902.JPEG</t>
+          <t>IMG_0_2026.JPEG</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1905.JPEG</t>
+          <t>IMG_0_2027.JPEG</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1906.JPEG</t>
+          <t>IMG_0_2029.JPEG</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1907.JPEG</t>
+          <t>IMG_0_2034.JPEG</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1908.JPEG</t>
+          <t>IMG_0_2042.JPEG</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1909.JPEG</t>
+          <t>IMG_0_2048.JPEG</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1933.JPEG</t>
+          <t>IMG_0_2055.JPEG</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1934.JPEG</t>
+          <t>IMG_0_2064.JPEG</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1941.JPEG</t>
+          <t>IMG_0_2066.JPEG</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1942.JPEG</t>
+          <t>IMG_0_2067.JPEG</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1943.JPEG</t>
+          <t>IMG_0_2070.JPEG</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1947.JPEG</t>
+          <t>IMG_0_2079.JPEG</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1948.JPEG</t>
+          <t>IMG_0_2080.JPEG</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1949.JPEG</t>
+          <t>IMG_0_2081.JPEG</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1950.JPEG</t>
+          <t>IMG_0_2084.JPEG</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1951.JPEG</t>
+          <t>IMG_0_2086.JPEG</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1953.JPEG</t>
+          <t>IMG_0_2097.JPEG</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1954.JPEG</t>
+          <t>IMG_0_2101.JPEG</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1955.JPEG</t>
+          <t>IMG_0_2108.JPEG</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1956.JPEG</t>
+          <t>IMG_0_2118.JPEG</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>IMG_1_1958.JPEG</t>
+          <t>IMG_0_2119.JPEG</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1993.JPEG</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1994.JPEG</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1995.JPEG</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1996.JPEG</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1997.JPEG</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1998.JPEG</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1999.JPEG</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_2002.JPEG</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_2003.JPEG</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1783.JPEG</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1789.JPEG</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1798.JPEG</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="inlineStr">
-        <is>
-          <t>IMG_3_1780.JPEG</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="inlineStr">
-        <is>
-          <t>IMG_3_1789.JPEG</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="inlineStr">
-        <is>
-          <t>IMG_3_1934.JPEG</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1783.JPEG</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1795.JPEG</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1796.JPEG</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1884.JPEG</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1886.JPEG</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1887.JPEG</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1894.JPEG</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1904.JPEG</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1905.JPEG</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1908.JPEG</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1913.JPEG</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1928.JPEG</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1934.JPEG</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1940.JPEG</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1945.JPEG</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1947.JPEG</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1952.JPEG</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1968.JPEG</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1975.JPEG</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1976.JPEG</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1978.JPEG</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1981.JPEG</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1986.JPEG</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1987.JPEG</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1995.JPEG</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2005.JPEG</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1784.JPEG</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1785.JPEG</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1809.JPEG</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1890.JPEG</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1896.JPEG</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1898.JPEG</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1903.JPEG</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1904.JPEG</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1932.JPEG</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1944.JPEG</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1945.JPEG</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1946.JPEG</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1952.JPEG</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1957.JPEG</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_2001.JPEG</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1810.JPEG</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1811.JPEG</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1812.JPEG</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1813.JPEG</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1814.JPEG</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1815.JPEG</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1816.JPEG</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1817.JPEG</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1818.JPEG</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1819.JPEG</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1820.JPEG</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1821.JPEG</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1822.JPEG</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1823.JPEG</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1824.JPEG</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1825.JPEG</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1826.JPEG</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1827.JPEG</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_1828.JPEG</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2011.JPEG</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2012.JPEG</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2013.JPEG</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2014.JPEG</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2015.JPEG</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2017.JPEG</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2018.JPEG</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2019.JPEG</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2020.JPEG</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2021.JPEG</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2023.JPEG</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2024.JPEG</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2025.JPEG</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2027.JPEG</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2028.JPEG</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2030.JPEG</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2031.JPEG</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2033.JPEG</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2034.JPEG</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2035.JPEG</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2036.JPEG</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2037.JPEG</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2038.JPEG</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2043.JPEG</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2045.JPEG</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2046.JPEG</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2049.JPEG</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2052.JPEG</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2053.JPEG</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2055.JPEG</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2058.JPEG</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2059.JPEG</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2060.JPEG</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2062.JPEG</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2063.JPEG</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2064.JPEG</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2065.JPEG</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2066.JPEG</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2067.JPEG</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2068.JPEG</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2069.JPEG</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2070.JPEG</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2071.JPEG</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2072.JPEG</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2073.JPEG</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2074.JPEG</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2075.JPEG</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2076.JPEG</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2078.JPEG</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2079.JPEG</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2080.JPEG</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2081.JPEG</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2082.JPEG</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2084.JPEG</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2085.JPEG</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2086.JPEG</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2087.JPEG</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2088.JPEG</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2091.JPEG</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2092.JPEG</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2093.JPEG</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2094.JPEG</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2095.JPEG</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2096.JPEG</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2097.JPEG</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2098.JPEG</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2099.JPEG</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2100.JPEG</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2101.JPEG</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2102.JPEG</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2103.JPEG</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2104.JPEG</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2105.JPEG</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2107.JPEG</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2108.JPEG</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2109.JPEG</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2110.JPEG</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2111.JPEG</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2112.JPEG</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2113.JPEG</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2114.JPEG</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2115.JPEG</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2117.JPEG</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2118.JPEG</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2119.JPEG</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2120.JPEG</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2121.JPEG</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2123.JPEG</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1812.JPEG</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1813.JPEG</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1823.JPEG</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1824.JPEG</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1825.JPEG</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1826.JPEG</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1827.JPEG</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1815.JPEG</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1817.JPEG</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1818.JPEG</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1822.JPEG</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_1824.JPEG</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="inlineStr">
-        <is>
-          <t>IMG_3_1819.JPEG</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="inlineStr">
-        <is>
-          <t>IMG_3_1820.JPEG</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="inlineStr">
-        <is>
-          <t>IMG_4_1812.JPEG</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="inlineStr">
-        <is>
-          <t>IMG_4_1825.JPEG</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="inlineStr">
-        <is>
-          <t>IMG_5_1813.JPEG</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="inlineStr">
-        <is>
-          <t>IMG_5_1821.JPEG</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2008.JPEG</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2016.JPEG</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2022.JPEG</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2026.JPEG</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2029.JPEG</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2032.JPEG</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2039.JPEG</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2040.JPEG</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2041.JPEG</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2042.JPEG</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2044.JPEG</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2047.JPEG</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2048.JPEG</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2050.JPEG</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2054.JPEG</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2056.JPEG</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2057.JPEG</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2061.JPEG</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2077.JPEG</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2083.JPEG</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2089.JPEG</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2090.JPEG</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2106.JPEG</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2116.JPEG</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="inlineStr">
-        <is>
-          <t>IMG_0_2122.JPEG</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="inlineStr">
-        <is>
-          <t>IMG_1_1821.JPEG</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="inlineStr">
-        <is>
-          <t>IMG_2_2051.JPEG</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
         <is>
           <t>test</t>
         </is>
